--- a/Allure/src/test/java/Data/testdata.xlsx
+++ b/Allure/src/test/java/Data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sasha/Documents/Selenium_projects/testng_maven/Allure/src/test/java/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F21AD4C-4308-F244-9AB4-C0C75D5ACB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF41D3-803A-BE40-8F2A-B559032D4A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14640" xr2:uid="{DF0F304C-CEEF-A442-9254-60FFBD19E2E9}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
